--- a/开发文档/实现/黑盒测试用例.xlsx
+++ b/开发文档/实现/黑盒测试用例.xlsx
@@ -1141,6 +1141,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,15 +1174,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,18 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15"/>
@@ -1488,29 +1488,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.9" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" ht="51.9" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -1549,24 +1549,24 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="22.75">
       <c r="A4" s="17" t="s">
@@ -1634,10 +1634,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="22.75">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.75">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1744,8 +1744,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.75">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1797,8 +1797,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.75">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
@@ -1850,8 +1850,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="45.45">
-      <c r="A9" s="30"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1907,9 +1907,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="22.75">
-      <c r="A10" s="30"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="45.45">
-      <c r="A11" s="30"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2021,9 +2021,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="45.45">
-      <c r="A12" s="30"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="10" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2078,8 +2078,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="45.45">
-      <c r="A13" s="30"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>223</v>
       </c>
@@ -2133,9 +2133,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="45.45">
-      <c r="A14" s="30"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="10" t="s">
         <v>224</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="45.45">
-      <c r="A15" s="30"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
         <v>225</v>
       </c>
@@ -2245,9 +2245,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="45.45">
-      <c r="A16" s="30"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="10" t="s">
         <v>226</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -2302,8 +2302,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="45.45">
-      <c r="A17" s="30"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
         <v>227</v>
       </c>
@@ -2357,9 +2357,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="45.45">
-      <c r="A18" s="30"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2414,8 +2414,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="68.150000000000006">
-      <c r="A19" s="30"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2471,9 +2471,9 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="68.150000000000006">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="10" t="s">
         <v>229</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2528,8 +2528,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="68.150000000000006">
-      <c r="A21" s="30"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
         <v>230</v>
       </c>
@@ -2583,9 +2583,9 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="68.150000000000006">
-      <c r="A22" s="30"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -2640,8 +2640,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="68.150000000000006">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2697,8 +2697,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="45.45">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>60</v>
       </c>
@@ -2750,8 +2750,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="68.150000000000006">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
         <v>64</v>
       </c>
@@ -2805,8 +2805,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="68.150000000000006">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
         <v>68</v>
       </c>
@@ -2860,13 +2860,13 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="22.75">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>244</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -2919,8 +2919,8 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="45.45">
-      <c r="A28" s="26"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
         <v>245</v>
       </c>
@@ -2974,8 +2974,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="45.45">
-      <c r="A29" s="26"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
         <v>246</v>
       </c>
@@ -3029,8 +3029,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="45.45">
-      <c r="A30" s="26"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
         <v>247</v>
       </c>
@@ -3080,8 +3080,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="45.45">
-      <c r="A31" s="26"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="9" t="s">
         <v>248</v>
       </c>
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="45.45">
-      <c r="A32" s="26"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="19" t="s">
         <v>80</v>
       </c>
@@ -3192,7 +3192,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="68.150000000000006">
-      <c r="A33" s="26"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
         <v>86</v>
       </c>
@@ -3249,7 +3249,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="68.150000000000006">
-      <c r="A34" s="26"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="19" t="s">
         <v>91</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="45.45">
-      <c r="A35" s="26"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="19" t="s">
         <v>96</v>
       </c>
@@ -3363,8 +3363,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="68.150000000000006">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -3420,8 +3420,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="68.150000000000006">
-      <c r="A37" s="26"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
         <v>104</v>
       </c>
@@ -3475,10 +3475,10 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="45.45">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -3534,8 +3534,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="45.45">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
         <v>113</v>
       </c>
@@ -3589,8 +3589,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="45.45">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
         <v>117</v>
       </c>
@@ -3644,8 +3644,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="45.45">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
         <v>121</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="90.9">
-      <c r="A42" s="30"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="9" t="s">
         <v>124</v>
       </c>
@@ -3756,8 +3756,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="45.45">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -3813,8 +3813,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="68.150000000000006">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
         <v>134</v>
       </c>
@@ -3868,8 +3868,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="45.45">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -3925,8 +3925,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="68.150000000000006">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
         <v>143</v>
       </c>
@@ -3980,8 +3980,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="45.45">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -4037,8 +4037,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="68.150000000000006">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
         <v>152</v>
       </c>
@@ -4092,8 +4092,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="45.45">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20" t="s">
         <v>156</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -4149,8 +4149,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="45.45">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
         <v>161</v>
       </c>
@@ -4204,8 +4204,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="45.45">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
         <v>165</v>
       </c>
@@ -4259,8 +4259,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="45.45">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -4316,8 +4316,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="45.45">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
         <v>174</v>
       </c>
@@ -4371,8 +4371,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="45.45">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
         <v>178</v>
       </c>
@@ -4652,6 +4652,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="A5:A26"/>
@@ -4666,12 +4672,6 @@
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
